--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95E3563-1F2D-4A03-B6F3-832D8C3EC4BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFF1C7B-6452-4210-9AE8-0CCECC2E38E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,8 +651,8 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +664,7 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <f>SUM(B2:B177)</f>
-        <v>2.2225925925925929</v>
+        <v>1.0876620370370367</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="2">
-        <v>1.1541666666666666</v>
+        <v>1.923611111111111E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFF1C7B-6452-4210-9AE8-0CCECC2E38E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4A21E-52DD-41E9-9F79-92390C235007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,8 +651,8 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +716,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>8.8541666666666664E-3</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.2488425925925925E-2</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>7.5000000000000006E-3</v>
       </c>
     </row>
@@ -740,7 +740,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>5.6712962962962958E-3</v>
       </c>
     </row>
@@ -748,20 +748,24 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>9.432870370370371E-3</v>
       </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>4.1898148148148146E-3</v>
       </c>
     </row>
@@ -769,7 +773,7 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>1.2002314814814815E-2</v>
       </c>
     </row>
@@ -777,7 +781,7 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>1.0092592592592592E-2</v>
       </c>
     </row>
@@ -785,7 +789,7 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>6.3310185185185197E-3</v>
       </c>
     </row>
@@ -793,7 +797,7 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>1.3275462962962963E-2</v>
       </c>
     </row>
@@ -801,7 +805,7 @@
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>1.7824074074074072E-3</v>
       </c>
     </row>
@@ -809,7 +813,7 @@
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>5.9837962962962961E-3</v>
       </c>
     </row>
@@ -817,7 +821,7 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>1.1273148148148148E-2</v>
       </c>
     </row>
@@ -825,7 +829,7 @@
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>5.347222222222222E-3</v>
       </c>
     </row>
@@ -833,7 +837,7 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>9.2476851851851852E-3</v>
       </c>
     </row>
@@ -841,7 +845,7 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>6.7361111111111103E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4A21E-52DD-41E9-9F79-92390C235007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316235FD-24AC-4393-AD78-28E53330E3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,7 +863,7 @@
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>9.7916666666666655E-3</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>3.645833333333333E-3</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>1.8819444444444448E-2</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316235FD-24AC-4393-AD78-28E53330E3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72A984-81B8-4B55-BB1A-7B87F2D1609C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,11 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29:B31"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
         <v>1.2002314814814815E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1.0092592592592592E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -793,7 +793,7 @@
         <v>6.3310185185185197E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1.3275462962962963E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1.7824074074074072E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -817,7 +817,7 @@
         <v>5.9837962962962961E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -825,7 +825,7 @@
         <v>1.1273148148148148E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -833,7 +833,7 @@
         <v>5.347222222222222E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -841,7 +841,7 @@
         <v>9.2476851851851852E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -849,17 +849,17 @@
         <v>6.7361111111111103E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -867,7 +867,7 @@
         <v>9.7916666666666655E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -875,7 +875,7 @@
         <v>3.645833333333333E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -883,12 +883,15 @@
         <v>1.8819444444444448E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2">
         <v>2.462962962962963E-2</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72A984-81B8-4B55-BB1A-7B87F2D1609C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7D6D9-D7C9-4342-B925-EF3082C0C934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
@@ -777,7 +777,7 @@
         <v>1.2002314814814815E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1.0092592592592592E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -793,7 +793,7 @@
         <v>6.3310185185185197E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1.3275462962962963E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1.7824074074074072E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -817,7 +817,7 @@
         <v>5.9837962962962961E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -825,7 +825,7 @@
         <v>1.1273148148148148E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -833,7 +833,7 @@
         <v>5.347222222222222E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -841,7 +841,7 @@
         <v>9.2476851851851852E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -849,17 +849,17 @@
         <v>6.7361111111111103E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -867,7 +867,7 @@
         <v>9.7916666666666655E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -875,7 +875,7 @@
         <v>3.645833333333333E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -883,15 +883,12 @@
         <v>1.8819444444444448E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2">
         <v>2.462962962962963E-2</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7D6D9-D7C9-4342-B925-EF3082C0C934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874C69E0-7B73-4E60-BF11-3477C152D1E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,8 +651,8 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +887,7 @@
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>2.462962962962963E-2</v>
       </c>
     </row>
@@ -895,7 +895,7 @@
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>6.828703703703704E-3</v>
       </c>
     </row>
@@ -903,7 +903,7 @@
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>1.5081018518518516E-2</v>
       </c>
     </row>
@@ -911,7 +911,7 @@
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>2.5428240740740741E-2</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>2.7372685185185184E-2</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>2.6828703703703702E-2</v>
       </c>
     </row>
@@ -945,7 +945,7 @@
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
@@ -953,7 +953,7 @@
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>5.2777777777777771E-3</v>
       </c>
     </row>
@@ -961,7 +961,7 @@
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>2.417824074074074E-2</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>3.414351851851852E-3</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>3.108796296296296E-2</v>
       </c>
     </row>
@@ -998,7 +998,7 @@
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>1.6574074074074074E-2</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       <c r="A50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>2.4733796296296295E-2</v>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>1.0254629629629629E-2</v>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
         <v>1.1006944444444444E-2</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>1.923611111111111E-2</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874C69E0-7B73-4E60-BF11-3477C152D1E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4849C-167F-4E07-9063-A972D85A2AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,8 +651,8 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1048,7 @@
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>5.1388888888888894E-2</v>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <v>7.6736111111111111E-3</v>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>2.2511574074074073E-2</v>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <v>3.2407407407407406E-3</v>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>4.5138888888888893E-3</v>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       <c r="A62" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <v>4.3981481481481484E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4849C-167F-4E07-9063-A972D85A2AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3401F86-F0AC-4A6D-BF60-71EE26A45AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
   <si>
     <t>2 Декомпозиция конфига. Опции конфигурации</t>
   </si>
@@ -305,6 +305,241 @@
   </si>
   <si>
     <t>80 Drawer. Overlay. React-device-detect. Мобилки и десктоп</t>
+  </si>
+  <si>
+    <t>8 Профили. Infinite scroll, intersection API. Отправка комментариев, профили пользователей</t>
+  </si>
+  <si>
+    <t>54 Список статей. useHover. Переключение вида</t>
+  </si>
+  <si>
+    <t>52 Профили пользователей. Фича addCommentForm</t>
+  </si>
+  <si>
+    <t>53 Апгрейд сайдбара. Селекторы</t>
+  </si>
+  <si>
+    <t>55 Статьи. EntityAdapter, thunks, slices. View selector</t>
+  </si>
+  <si>
+    <t>56 Пагинация. Page. Бесконечная лента. Observer API. useInfiniteScroll</t>
+  </si>
+  <si>
+    <t>9 Троттлинг. Дебаунс. Группировка редюсеров. Фильтры, сортировка, поиск. CopyPlugin и продакшн на netlify</t>
+  </si>
+  <si>
+    <t>57 Инициализация страницы. Чиним монтирование Store. Mounted reducers</t>
+  </si>
+  <si>
+    <t>58 Троттлинг. useThrottle. UI state. Сохранение позиции скролла</t>
+  </si>
+  <si>
+    <t>59 Большой урок. Фильтры. Сортировка. Поиск. Tabs. useDebounce</t>
+  </si>
+  <si>
+    <t>60 Список рекомендаций. Группируем редюсеры. Скроллбар</t>
+  </si>
+  <si>
+    <t>61 Создание и редактирование статей. Pages</t>
+  </si>
+  <si>
+    <t>62 CopyPlugin. Подготовка к продакшну. Публикуем на Netlify</t>
+  </si>
+  <si>
+    <t>11 Генератор слоев. RTK query. Начало большого рефакторинга. Роли пользователя. 18 реакт. Babel loader. Кольцевые зависимости.</t>
+  </si>
+  <si>
+    <t>69 Генератор фичей сущностей страниц на node js</t>
+  </si>
+  <si>
+    <t>70 RTK query. Начало большого рефакторинга</t>
+  </si>
+  <si>
+    <t>71 HTML report для тестов</t>
+  </si>
+  <si>
+    <t>72 Исправляем баг с виртуализацией. Пишем RTL тесты на карточку профиля</t>
+  </si>
+  <si>
+    <t>73 Роли пользователя. Доступ по ролям. Forbidden page</t>
+  </si>
+  <si>
+    <t>74 Исправляем проблемы со STACK</t>
+  </si>
+  <si>
+    <t>75 Миграция на 18 реакт. Рефакторинг. Storybook mock addon</t>
+  </si>
+  <si>
+    <t>76 TS isolatedModules. Рефакторинг. Подготовка к миграции на babel loader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+77 CircularDependency. Кольцевые зависимости</t>
+  </si>
+  <si>
+    <t>78 Миграция на babel loader. Выносим проверку типов в отдельный процесс. Пишем свой babel plugin</t>
+  </si>
+  <si>
+    <t>13 Арх-ые правила eslint. Автофикс. Test public api. Рефакторинг. Документация. Сборка. Улучшаем работу со store</t>
+  </si>
+  <si>
+    <t>88 Алиасы в сторибуке. Приводим сторибук в порядок 07.30</t>
+  </si>
+  <si>
+    <t>89 Опции в линтере. Добавляем поддержку алисов в наш eslint плагин 08:35</t>
+  </si>
+  <si>
+    <t>90 Ограничиваем доступ к внутренностям модуля. Public api imports 12:40</t>
+  </si>
+  <si>
+    <t>91 Testing public api. Micromatch. Тесты на eslint плагин 11:17</t>
+  </si>
+  <si>
+    <t>92 Рефакторинг конфига роутера 03:40</t>
+  </si>
+  <si>
+    <t>93 Layer imports. Улучшаем правила арх-ры. Запрещаем импорт из верхних слоев 17:40</t>
+  </si>
+  <si>
+    <t>94 Shared UI public api. Автоматизация рефакторинга 12:37</t>
+  </si>
+  <si>
+    <t>95 ESLINT Плагин на неиспользуемые импорты 02:17</t>
+  </si>
+  <si>
+    <t>96 Делаем автофикс для public api линтера 07:19</t>
+  </si>
+  <si>
+    <t>97 Документация проекта 09:49</t>
+  </si>
+  <si>
+    <t>98 Алиасы в jest. Fullscreen mode storybook 05:48</t>
+  </si>
+  <si>
+    <t>99 Storybook addon theme 03:50</t>
+  </si>
+  <si>
+    <t>100 Generic components 03:22</t>
+  </si>
+  <si>
+    <t>101 Однозначное сопоставление типов в ReducersList 02:39</t>
+  </si>
+  <si>
+    <t>102 Улучшаем и стандартизируем работу с роутером 07:00</t>
+  </si>
+  <si>
+    <t>103 Рефакторинг entities и features 05:40</t>
+  </si>
+  <si>
+    <t>104 Улучшаем сборку. Babel loader cache. Postinstall hooks 08:43</t>
+  </si>
+  <si>
+    <t>105 BuildSlice. BuildSelector. Улучшаем работу со state. useActions 12:55</t>
+  </si>
+  <si>
+    <t>15 Модели ветвления GIT. Концепция Feature flags. Настройки пользователя Json settings. Автоматика по удалению старого кода</t>
+  </si>
+  <si>
+    <t>124 Селекторы с аргументами. Типизация buildSelector 06:20</t>
+  </si>
+  <si>
+    <t>125.1 Модели ветвления Git. Trunk based vs Git Flow 12:13</t>
+  </si>
+  <si>
+    <t>125.2 концепция Feature flags. Постепенное внедрение новых фичей 10:40</t>
+  </si>
+  <si>
+    <t>126 Унификация работы с флагами. Автоудаление старых фич 27:30</t>
+  </si>
+  <si>
+    <t>127 Json Settings. Настройки пользователя. Localstorage на максималках 25:50</t>
+  </si>
+  <si>
+    <t>128 Запрос на получение пользователя. Избавляемся от заглушки в Localstorage 08:50</t>
+  </si>
+  <si>
+    <t>129 Практическое применение json settings. Работа с новыми пользователями 05:50</t>
+  </si>
+  <si>
+    <t>130 ToggleFeatures. Обвязка для работы с компонентами. Автоудаление 16:03</t>
+  </si>
+  <si>
+    <t>16 Редизайн проекта. Новый UI kit. Дизайн система. Layout система. Redesigned/deprecated код</t>
+  </si>
+  <si>
+    <t>131 Макеты. Layout. Гриды. Шрифты. Цвета 32:13</t>
+  </si>
+  <si>
+    <t>132 SVGR. Обработка размеров и цветов иконки на этапе сборки 06:11</t>
+  </si>
+  <si>
+    <t>133 Редизайн UI kit. Помечаем старые компоненты deprecated 05:18</t>
+  </si>
+  <si>
+    <t>134 Редизайн Sidebar. Иконки. Кнопки. Ссылки 33:41</t>
+  </si>
+  <si>
+    <t>135 Редизайн Navbar, dropdowns, работа с текстом 24:03</t>
+  </si>
+  <si>
+    <t>136 Sticky Layout для статей. Редизайн табов, фильтров 36:47</t>
+  </si>
+  <si>
+    <t>137 addon left right. Инпут, кнопка. Pixel perfect plugin проверка 16:04</t>
+  </si>
+  <si>
+    <t>138 Редизайн карточки профиля 24:09</t>
+  </si>
+  <si>
+    <t>139 Исправляем скрипт, градиент на иконке, недочеты 03:40</t>
+  </si>
+  <si>
+    <t>140 Редизайн ленты статей 15:32</t>
+  </si>
+  <si>
+    <t>141 Редизайн плиточного отображения статей 08:42</t>
+  </si>
+  <si>
+    <t>142 Переключение нового и старого дизайна. Страница настроек. Обновление фичей 15:17</t>
+  </si>
+  <si>
+    <t>143 Рефакторинг портала, модалки, шторки 04:30</t>
+  </si>
+  <si>
+    <t>144 Виджет с доп инфой о статье. i18n плюральные формы 16:32</t>
+  </si>
+  <si>
+    <t>145 Редизайн ArticleDetails 14:28</t>
+  </si>
+  <si>
+    <t>146 Редизайн рейтинга, комментариев 17:50</t>
+  </si>
+  <si>
+    <t>147 Редизайн модалок, устранение мелких недочетов 13:12</t>
+  </si>
+  <si>
+    <t>148 ForceUpdateProvider костыль. Обновляем интерфейс 09:26</t>
+  </si>
+  <si>
+    <t>149 Редизайн скролла. Фикс скелетона 05:00</t>
+  </si>
+  <si>
+    <t>150 AppLoaderLayout. Fallback для темы и выбранного дизайна 09:12</t>
+  </si>
+  <si>
+    <t>151 Toolbar как часть Layout. ScrollToolbar. useCurrentRoute 12:08</t>
+  </si>
+  <si>
+    <t>152 HOC withTheme, чиним сторибук, поддерживаем feature flags в сторибуке 13:20</t>
+  </si>
+  <si>
+    <t>153 Проверяем автоматику по удалению всех фича флагов 04:47</t>
+  </si>
+  <si>
+    <t>154 ValidateDOMNesting, forwardRef, исправляем проблемы 04:12</t>
+  </si>
+  <si>
+    <t>155 Финальный стрим</t>
   </si>
 </sst>
 </file>
@@ -370,7 +605,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B62"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,8 +898,8 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
-        <f>SUM(B2:B177)</f>
-        <v>1.0876620370370367</v>
+        <f>SUM(B2:B224)</f>
+        <v>1.8249884259259255</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1336,7 @@
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>5.6944444444444438E-3</v>
       </c>
     </row>
@@ -1109,7 +1344,7 @@
       <c r="A66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <v>8.8773148148148153E-3</v>
       </c>
     </row>
@@ -1117,7 +1352,7 @@
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4">
         <v>2.7604166666666666E-2</v>
       </c>
     </row>
@@ -1125,7 +1360,7 @@
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="4">
         <v>3.2129629629629626E-2</v>
       </c>
     </row>
@@ -1133,279 +1368,882 @@
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <v>3.3738425925925929E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="2">
-        <v>1.8518518518518521E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="B72" s="4">
+        <v>3.0300925925925926E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="2">
-        <v>2.056712962962963E-2</v>
+        <v>98</v>
+      </c>
+      <c r="B73" s="4">
+        <v>3.1018518518518522E-3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1.9849537037037037E-2</v>
+        <v>96</v>
+      </c>
+      <c r="B74" s="4">
+        <v>3.6377314814814814E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="2">
-        <v>4.9189814814814816E-3</v>
+        <v>99</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1.5497685185185186E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="2">
-        <v>2.3090277777777779E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1.577546296296296E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="B76" s="4">
+        <v>2.3344907407407408E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1.0752314814814814E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="2">
-        <v>2.5289351851851851E-2</v>
+        <v>103</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1.1145833333333334E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2">
-        <v>9.0740740740740729E-3</v>
+        <v>4.3946759259259255E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2">
-        <v>4.1666666666666666E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1.5856481481481482E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2">
-        <v>1.5162037037037036E-2</v>
+        <v>1.0810185185185185E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2">
-        <v>7.9166666666666673E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="2">
-        <v>3.3101851851851851E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1.8749999999999999E-2</v>
+        <v>1.1249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B87" s="2">
-        <v>1.7384259259259262E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>69</v>
+        <v>1.8518518518518521E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2.056712962962963E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1.9849537037037037E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B90" s="2">
-        <v>7.8240740740740753E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B91" s="2">
-        <v>6.3657407407407404E-3</v>
+        <v>2.3090277777777779E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B92" s="2">
-        <v>2.1643518518518518E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="2">
-        <v>5.5092592592592589E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="2">
-        <v>3.472222222222222E-3</v>
+        <v>1.577546296296296E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2">
-        <v>7.1296296296296307E-3</v>
+        <v>6.4236111111111117E-3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2">
-        <v>7.3726851851851861E-3</v>
+        <v>3.107638888888889E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2">
-        <v>1.4236111111111111E-2</v>
+        <v>3.2754629629629631E-3</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2">
-        <v>2.5462962962962962E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1.4745370370370372E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2">
-        <v>8.1249999999999985E-3</v>
+        <v>1.119212962962963E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2">
-        <v>8.4143518518518517E-3</v>
+        <v>8.2175925925925917E-4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
-        <v>9.571759259259259E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.6354166666666666E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2">
-        <v>8.4953703703703701E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6.9907407407407409E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2">
-        <v>7.2916666666666659E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.2754629629629631E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2">
-        <v>7.037037037037037E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B105" s="2">
-        <v>1.1747685185185186E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B106" s="2">
-        <v>7.7662037037037031E-3</v>
+        <v>1.2141203703703704E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2.5289351851851851E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B108" s="2">
+        <v>9.0740740740740729E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1.5162037037037036E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="2">
+        <v>7.9166666666666673E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3.3101851851851851E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1.7384259259259262E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="2">
+        <v>5.208333333333333E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5.9606481481481489E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="2">
+        <v>8.7962962962962968E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="2">
+        <v>7.8356481481481489E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2.5462962962962961E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1.2268518518518519E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="2">
+        <v>8.7615740740740744E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1.5856481481481479E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="2">
+        <v>5.0810185185185186E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="2">
+        <v>6.8171296296296287E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="2">
+        <v>4.0277777777777777E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2.6620370370370374E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2.3379629629629631E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1.8402777777777777E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3.9351851851851857E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="2">
+        <v>6.053240740740741E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="2">
+        <v>8.9699074074074073E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B137" s="2">
+        <v>7.8240740740740753E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" s="2">
+        <v>6.3657407407407404E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2.1643518518518518E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140" s="2">
+        <v>5.5092592592592589E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B141" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" s="2">
+        <v>7.1296296296296307E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="2">
+        <v>7.3726851851851861E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1.4236111111111111E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2.5462962962962962E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B146" s="2">
+        <v>8.1249999999999985E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B147" s="2">
+        <v>8.4143518518518517E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" s="2">
+        <v>9.571759259259259E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" s="2">
+        <v>8.4953703703703701E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B150" s="2">
+        <v>7.2916666666666659E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7.037037037037037E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1.1747685185185186E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153" s="2">
+        <v>7.7662037037037031E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B154" s="2">
         <v>7.4074074074074068E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" s="2">
+        <v>4.3981481481481484E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" s="2">
+        <v>8.4837962962962966E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" s="2">
+        <v>7.4074074074074068E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1.909722222222222E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1.7939814814814815E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162" s="2">
+        <v>6.1342592592592594E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B163" s="2">
+        <v>4.0509259259259257E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164" s="2">
+        <v>1.1145833333333334E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2.2372685185185186E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" s="2">
+        <v>4.2939814814814811E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B169" s="2">
+        <v>3.6805555555555554E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2.3391203703703702E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" s="2">
+        <v>1.6701388888888887E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B172" s="2">
+        <v>2.5543981481481483E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1.1157407407407408E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1.6770833333333332E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2.5462962962962961E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1.0787037037037038E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B177" s="2">
+        <v>6.0416666666666665E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1.0613425925925927E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179" s="2">
+        <v>3.1249999999999997E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B180" s="2">
+        <v>1.1481481481481483E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1.0046296296296296E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1.238425925925926E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B183" s="2">
+        <v>9.1666666666666667E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B184" s="2">
+        <v>6.5509259259259262E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B185" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B186" s="2">
+        <v>6.3888888888888884E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="2">
+        <v>8.4259259259259253E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B188" s="2">
+        <v>9.2592592592592605E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B189" s="2">
+        <v>3.3217592592592591E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2.9166666666666668E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3401F86-F0AC-4A6D-BF60-71EE26A45AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB30261-EB69-4B90-8A70-4962FC38D937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -886,8 +886,8 @@
   <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B80"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98:B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1442,7 @@
       <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="4">
         <v>4.3946759259259255E-2</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       <c r="A82" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="4">
         <v>1.5856481481481482E-2</v>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       <c r="A83" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="4">
         <v>1.0810185185185185E-2</v>
       </c>
     </row>
@@ -1466,20 +1466,24 @@
       <c r="A84" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="4">
         <v>1.1249999999999998E-2</v>
       </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="4">
         <v>1.8518518518518521E-2</v>
       </c>
     </row>
@@ -1487,7 +1491,7 @@
       <c r="A88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="4">
         <v>2.056712962962963E-2</v>
       </c>
     </row>
@@ -1495,7 +1499,7 @@
       <c r="A89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="4">
         <v>1.9849537037037037E-2</v>
       </c>
     </row>
@@ -1503,7 +1507,7 @@
       <c r="A90" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="4">
         <v>4.9189814814814816E-3</v>
       </c>
     </row>
@@ -1511,7 +1515,7 @@
       <c r="A91" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4">
         <v>2.3090277777777779E-2</v>
       </c>
     </row>
@@ -1519,20 +1523,24 @@
       <c r="A92" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="4">
         <v>1.577546296296296E-2</v>
       </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="4">
         <v>6.4236111111111117E-3</v>
       </c>
     </row>
@@ -1540,7 +1548,7 @@
       <c r="A96" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="4">
         <v>3.107638888888889E-2</v>
       </c>
     </row>
@@ -1548,7 +1556,7 @@
       <c r="A97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="4">
         <v>3.2754629629629631E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB30261-EB69-4B90-8A70-4962FC38D937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FCBA4F-391D-481D-8577-2B2FF3A345A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,8 +886,8 @@
   <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98:B190"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1564,7 @@
       <c r="A98" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="4">
         <v>1.4745370370370372E-2</v>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="A99" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="4">
         <v>1.119212962962963E-2</v>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       <c r="A100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="4">
         <v>8.2175925925925917E-4</v>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       <c r="A101" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="4">
         <v>1.6354166666666666E-2</v>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="4">
         <v>6.9907407407407409E-3</v>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="4">
         <v>3.2754629629629631E-3</v>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       <c r="A104" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="4">
         <v>1.2141203703703704E-2</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FCBA4F-391D-481D-8577-2B2FF3A345A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508FFF4-FA21-4F8D-AE65-78ECD756BABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,8 +886,8 @@
   <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117:B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,7 +1625,7 @@
       <c r="A107" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="4">
         <v>2.5289351851851851E-2</v>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       <c r="A108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="4">
         <v>9.0740740740740729E-3</v>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       <c r="A109" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="4">
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       <c r="A110" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="4">
         <v>1.5162037037037036E-2</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="A111" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="4">
         <v>7.9166666666666673E-3</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="A112" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="4">
         <v>3.3101851851851851E-3</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="A113" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="4">
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       <c r="A114" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="4">
         <v>1.7384259259259262E-2</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508FFF4-FA21-4F8D-AE65-78ECD756BABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834022F6-4063-433F-96DD-2332AB6099DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,8 +886,8 @@
   <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117:B190"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,7 +1694,7 @@
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="4">
         <v>5.208333333333333E-3</v>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="4">
         <v>5.9606481481481489E-3</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="4">
         <v>8.7962962962962968E-3</v>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="4">
         <v>7.8356481481481489E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834022F6-4063-433F-96DD-2332AB6099DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF647CD-6EBE-4A7C-B879-4FFED35FA667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,8 +886,8 @@
   <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134:B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,7 +1726,7 @@
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="4">
         <v>2.5462962962962961E-3</v>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="4">
         <v>1.2268518518518519E-2</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="4">
         <v>8.7615740740740744E-3</v>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="4">
         <v>1.5856481481481479E-3</v>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="4">
         <v>5.0810185185185186E-3</v>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="4">
         <v>6.8171296296296287E-3</v>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="4">
         <v>4.0277777777777777E-3</v>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="4">
         <v>2.6620370370370374E-3</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="4">
         <v>2.3379629629629631E-3</v>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="4">
         <v>1.8402777777777777E-3</v>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="4">
         <v>4.8611111111111112E-3</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="4">
         <v>3.9351851851851857E-3</v>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="4">
         <v>6.053240740740741E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF647CD-6EBE-4A7C-B879-4FFED35FA667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B165B54-BD81-41A6-9258-5F13D7A789B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,8 +886,8 @@
   <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134:B190"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B137" sqref="B137:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1830,7 +1830,7 @@
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="4">
         <v>8.9699074074074073E-3</v>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="A137" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="4">
         <v>7.8240740740740753E-3</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       <c r="A138" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="4">
         <v>6.3657407407407404E-3</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       <c r="A139" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="4">
         <v>2.1643518518518518E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B165B54-BD81-41A6-9258-5F13D7A789B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59ABC6C-5614-4D60-9723-E58724E0C2CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,8 +886,8 @@
   <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B137" sqref="B137:B139"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,7 +1867,7 @@
       <c r="A140" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="4">
         <v>5.5092592592592589E-3</v>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       <c r="A141" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="4">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="A142" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="4">
         <v>7.1296296296296307E-3</v>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="A143" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="4">
         <v>7.3726851851851861E-3</v>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       <c r="A144" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="4">
         <v>1.4236111111111111E-2</v>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="A145" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="4">
         <v>2.5462962962962962E-2</v>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       <c r="A146" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="4">
         <v>8.1249999999999985E-3</v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="A147" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="4">
         <v>8.4143518518518517E-3</v>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="4">
         <v>9.571759259259259E-3</v>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       <c r="A149" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="4">
         <v>8.4953703703703701E-3</v>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       <c r="A150" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="4">
         <v>7.2916666666666659E-3</v>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       <c r="A151" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="4">
         <v>7.037037037037037E-3</v>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       <c r="A152" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="4">
         <v>1.1747685185185186E-2</v>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       <c r="A153" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="4">
         <v>7.7662037037037031E-3</v>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       <c r="A154" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="4">
         <v>7.4074074074074068E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59ABC6C-5614-4D60-9723-E58724E0C2CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58DA71-D931-4E75-8FC7-8A7E3CB5230A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,7 +887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1992,7 +1992,7 @@
       <c r="A157" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="4">
         <v>4.3981481481481484E-3</v>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       <c r="A158" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="4">
         <v>8.4837962962962966E-3</v>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       <c r="A159" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="4">
         <v>7.4074074074074068E-3</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       <c r="A160" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="4">
         <v>1.909722222222222E-2</v>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       <c r="A161" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="4">
         <v>1.7939814814814815E-2</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="A162" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="4">
         <v>6.1342592592592594E-3</v>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       <c r="A163" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="4">
         <v>4.0509259259259257E-3</v>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       <c r="A164" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="4">
         <v>1.1145833333333334E-2</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58DA71-D931-4E75-8FC7-8A7E3CB5230A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C75DB4-1E77-40D6-961E-801414B1AE41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,8 +886,8 @@
   <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B157" sqref="B157:B164"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173:B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2061,7 +2061,7 @@
       <c r="A167" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="4">
         <v>2.2372685185185186E-2</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       <c r="A168" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="4">
         <v>4.2939814814814811E-3</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       <c r="A169" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="4">
         <v>3.6805555555555554E-3</v>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       <c r="A170" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="4">
         <v>2.3391203703703702E-2</v>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       <c r="A171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="4">
         <v>1.6701388888888887E-2</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       <c r="A172" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="4">
         <v>2.5543981481481483E-2</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C75DB4-1E77-40D6-961E-801414B1AE41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967AAA86-83C6-491F-A61E-C788C0ADFB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,7 +887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173:B190"/>
+      <selection pane="bottomLeft" activeCell="B178" sqref="B178:B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,7 +2109,7 @@
       <c r="A173" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="4">
         <v>1.1157407407407408E-2</v>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       <c r="A174" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="4">
         <v>1.6770833333333332E-2</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       <c r="A175" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="4">
         <v>2.5462962962962961E-3</v>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       <c r="A176" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="4">
         <v>1.0787037037037038E-2</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="A177" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="4">
         <v>6.0416666666666665E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967AAA86-83C6-491F-A61E-C788C0ADFB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4099E7F2-BAFE-4322-A3AF-B67B19FF0593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,7 +887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B178" sqref="B178:B179"/>
+      <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,7 +2149,7 @@
       <c r="A178" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="4">
         <v>1.0613425925925927E-2</v>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       <c r="A179" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="4">
         <v>3.1249999999999997E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4099E7F2-BAFE-4322-A3AF-B67B19FF0593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03459C1-FAA8-4CBA-9E75-A335F9C57408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="173">
   <si>
     <t>2 Декомпозиция конфига. Опции конфигурации</t>
   </si>
@@ -887,7 +887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
+      <selection pane="bottomLeft" activeCell="B180" sqref="B180:B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,7 +2165,7 @@
       <c r="A180" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="4">
         <v>1.1481481481481483E-2</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       <c r="A181" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="4">
         <v>1.0046296296296296E-2</v>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       <c r="A182" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="4">
         <v>1.238425925925926E-2</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="A183" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="4">
         <v>9.1666666666666667E-3</v>
       </c>
     </row>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03459C1-FAA8-4CBA-9E75-A335F9C57408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51379CE0-9A66-429F-B111-B388C2FBE1F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
   <si>
     <t>2 Декомпозиция конфига. Опции конфигурации</t>
   </si>
@@ -887,7 +887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B180" sqref="B180:B183"/>
+      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,7 +2197,7 @@
       <c r="A184" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="4">
         <v>6.5509259259259262E-3</v>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       <c r="A185" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="4">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       <c r="A186" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="4">
         <v>6.3888888888888884E-3</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="A187" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="4">
         <v>8.4259259259259253E-3</v>
       </c>
     </row>
